--- a/anime_news.xlsx
+++ b/anime_news.xlsx
@@ -7,13 +7,14 @@
     <sheet sheetId="1" name="MyAnimeList News" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Anime News Network News" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Anime Megathread Top Comments" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="AnimeNews Subreddit" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="510">
   <si>
     <t>Title</t>
   </si>
@@ -24,6 +25,42 @@
     <t>Content</t>
   </si>
   <si>
+    <t>Cygames Announces 'Yuuki Bakuhatsu Bang Bravern' Original TV Anime</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/news/69291235</t>
+  </si>
+  <si>
+    <t>Cygames announced an original television anime titled Yuuki Bakuhatsu Bang Bravern (Bang Brave Bang Bravern) on Monday. The video game developer also opened an official website, revealing the lead staff, a teaser promo, and teaser visual (pictured). Masami Oobari (Prism Ark, Bubb...</t>
+  </si>
+  <si>
+    <t>'Girls Band Cry' Reveals Main Cast, Staff, Key Visual</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/news/69290954</t>
+  </si>
+  <si>
+    <t>The official website of Toei Animation's Girls Band Cry original anime revealed the cast, staff, key visual (pictured), and two music videos by the Togenashi Togeari unit on Monday. Staff Original Work, Planning, Production: Toei Animation Director: Kazuo Sakai (Love Live! Sunshi...</t>
+  </si>
+  <si>
+    <t>'Kage no Jitsuryokusha ni Naritakute!' 2nd Season Reveals Additional Cast, Second Promo, Fall 2023 Premiere</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/news/69284569</t>
+  </si>
+  <si>
+    <t>The official website of the television anime adaptation of Daisuke Aizawa's Kage no Jitsuryokusha ni Naritakute! (The Eminence in Shadow) light novel revealed on Sunday additional cast and a second promotional video for the second season. The new season is scheduled to premiere i...</t>
+  </si>
+  <si>
+    <t>'Bleach: Sennen Kessen-hen - Ketsubetsu-tan' Reveals Additional Cast, Opening Theme, First Promo</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/news/69283316</t>
+  </si>
+  <si>
+    <t>The official website of the Bleach: Sennen Kessen-hen (Bleach: Thousand-Year Blood War) television anime revealed on Sunday four additional cast, opening theme, key visual (pictured), and a promotional video for the second cour. Ketsubetsu-tan is scheduled to premiere on July 8 a...</t>
+  </si>
+  <si>
     <t>'BanG Dream! It's MyGO!!!!!' Reveals Additional Staff, Ending Theme</t>
   </si>
   <si>
@@ -168,40 +205,283 @@
     <t>The Kessoku Band Live: Kousei event announced a compilation movie for the Bocchi the Rock! anime series on Sunday, revealing a key visual (pictured) and an announcement promo. The movie will open in theaters in Japan in Spring 2024. The television anime produced by CloverWorks ai...</t>
   </si>
   <si>
-    <t>'Synduality: Noir' Announces Additional Cast, Ending Theme</t>
-  </si>
-  <si>
-    <t>https://myanimelist.net/news/69240627</t>
-  </si>
-  <si>
-    <t>The official website of the Synduality: Noir television anime revealed three supporting cast members and the ending theme on Sunday. The anime is scheduled to premiere on July 11 at 12:00 a.m. on TV Tokyo, BS-NTV, and other channels. It will also stream worldwide exclusively on D...</t>
-  </si>
-  <si>
-    <t>'Nanatsu no Maken ga Shihai suru' Announces Supporting Cast</t>
-  </si>
-  <si>
-    <t>https://myanimelist.net/news/69229712</t>
-  </si>
-  <si>
-    <t>The official website of the Nanatsu no Maken ga Shihai suru (Reign of the Seven Spellblades) television anime series announced on Friday three additional cast members. The anime is scheduled to premiere in July 2023. Cast Esmeralda: Atsuko Tanaka (JoJo no Kimyou na Bouken (TV))...</t>
-  </si>
-  <si>
-    <t>'Higeki no Genkyou to Naru Saikyou Gedou Last Boss Joou wa Tami no Tame ni Tsukushimasu.' Unveils Additional Cast, Theme Songs</t>
-  </si>
-  <si>
-    <t>https://myanimelist.net/news/69223570</t>
-  </si>
-  <si>
-    <t>The official website of the television anime adaptation of Tenichi's Higeki no Genkyou to Naru Saikyou Gedou Last Boss Joou wa Tami no Tame ni Tsukushimasu. (The Most Heretical Last Boss Queen: From Villainess to Savior) light novel unveiled additional cast members and the theme...</t>
-  </si>
-  <si>
-    <t>Manga 'Medalist' Gets TV Anime</t>
-  </si>
-  <si>
-    <t>https://myanimelist.net/news/69223465</t>
-  </si>
-  <si>
-    <t>Publishing company Kadokawa opened an official website for a television anime adaptation of Tsurumaikada's Medalist manga on Thursday, revealing the main staff and a teaser visual (pictured). Staff Director: Yasutaka Yamamoto (Noblesse, Nekopara) Series Composition: Jukki Hanada...</t>
+    <t>Spider-Man: Across the Spider-Verse Film Gets Manga Spinoff About Doc Ock in Schoolgirl's Body</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/spider-man-across-the-spider-verse-film-gets-manga-spinoff-about-doc-ock-in-schoolgirl-body/.198587</t>
+  </si>
+  <si>
+    <t>My Hero Academia: Vigilantes' Hideyuki Furuhashi, Betten Court draw manga launching on June 20</t>
+  </si>
+  <si>
+    <t>Golden Kamuy Anime Season 4 Casts Kousuke Toriumi</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/golden-kamuy-anime-season-4-casts-kousuke-toriumi/.198586</t>
+  </si>
+  <si>
+    <t>Toriumi plays Takuboku Ishikawa</t>
+  </si>
+  <si>
+    <t>Insomniacs After School Anime Casts Sora Amamiya as Isaki's Big Sister</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/insomniacs-after-school-anime-casts-sora-amamiya-as-isaki-big-sister/.198585</t>
+  </si>
+  <si>
+    <t>Haya Magari appears in next week's episode</t>
+  </si>
+  <si>
+    <t>Mobile Suit Gundam: Hathaway's Flash Manga Ends 1st Part</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/mobile-suit-gundam-hathaway-flash-manga-ends-1st-part/.198541</t>
+  </si>
+  <si>
+    <t>Manga's 1st part ends on June 26</t>
+  </si>
+  <si>
+    <t>Anime Expo Hosts Yoshiki, Takayuki Hirao, Cast of Love Live! Franchise, More</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/anime-expo-hosts-yoshiki-takayuki-hirao-cast-of-love-live-franchise-more/.198539</t>
+  </si>
+  <si>
+    <t>Voice actor Masakazu Morita, Zom 100 manga creator Kotaro Takata also attend event</t>
+  </si>
+  <si>
+    <t>Crimson Hero's Mitsuba Takanashi Goes on Hiatus for Breast Cancer Surgery, Treatment</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/crimson-hero-mitsuba-takanashi-goes-on-hiatus-for-breast-cancer-surgery-treatment/.198562</t>
+  </si>
+  <si>
+    <t>Takanashi's ongoing Otome Tsubaki wa Warawanai manga goes on hiatus indefinitely</t>
+  </si>
+  <si>
+    <t>Bleach: Thousand-Year Blood War Anime's Video Unveils New Opening Song, More Cast, July 8 Return</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/bleach-thousand-year-blood-war-anime-video-unveils-new-opening-song-more-cast-july-8-return/.198543</t>
+  </si>
+  <si>
+    <t>Aoi Yūki, Tsuyoshi Koyama, Sōichiro Hoshi, Nao Tōyama, rock band w.o.d. join anime</t>
+  </si>
+  <si>
+    <t>Demon Slayer: Swordsmith Village Arc Anime Casts Kengo Kawanishi Twice &amp; Manami Numakura</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/demon-slayer-swordsmith-village-arc-anime-casts-kengo-kawanishi-twice-and-manami-numakura/.198549</t>
+  </si>
+  <si>
+    <t>Kawanishi plays dual roles; Kentarō Kumagai, Atsushi Ono also cast</t>
+  </si>
+  <si>
+    <t>Zom 100: Bucket List of the Dead Anime Debuts on Hulu in U.S. on July 9</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/zom-100-bucket-list-of-the-dead-anime-debuts-on-hulu-in-u.s-on-july-9/.198537</t>
+  </si>
+  <si>
+    <t>Viz Media to also stream anime on Netflix, "other streaming platforms"</t>
+  </si>
+  <si>
+    <t>Yumemiru Danshi wa Genjitsushugisha Anime Reveals Opening, Ending Theme Song Artists</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/yumemiru-danshi-wa-genjitsushugisha-anime-reveals-opening-ending-theme-song-artists/.198577</t>
+  </si>
+  <si>
+    <t>Kaori Ishihara performs opening, Akiho Suzumoto performs ending for summer anime</t>
+  </si>
+  <si>
+    <t>Sorcerous Stabber Orphen Anime's Sanctuary Arc Casts Haruka Fushimi</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/sorcerous-stabber-orphen-anime-sanctuary-arc-casts-haruka-fushimi/.198578</t>
+  </si>
+  <si>
+    <t>Fushimi voices Isabella in new series</t>
+  </si>
+  <si>
+    <t>Suzume Film Ends Theatrical Run in Japan with 14.79 Billion Yen Total Box Office Earnings</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/suzume-film-ends-theatrical-run-in-japan-with-14.79-billion-yen-total-box-office-earnings/.198572</t>
+  </si>
+  <si>
+    <t>Film ranked #8 in its 29th, final weekend in theaters</t>
+  </si>
+  <si>
+    <t>The First Slam Dunk Surpasses Weathering With You, Becomes 9th Highest-Earning Anime Film in Japan</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/the-first-slam-dunk-surpasses-weathering-with-you-becomes-9th-highest-earning-anime-film-in-japan/.198573</t>
+  </si>
+  <si>
+    <t>Film is 15th highest-earning film of all time in Japan, below Suzume</t>
+  </si>
+  <si>
+    <t>The Super Mario Bros. Movie Tops 10 Billion Yen in Japan</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/the-super-mario-bros-movie-tops-10-billion-yen-in-japan/.198568</t>
+  </si>
+  <si>
+    <t>Film has earned worldwide total of US$1.27 billion</t>
+  </si>
+  <si>
+    <t>Tekken 8 Fighting Game Reveals Gameplay Trailer for Bryan Fury</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/tekken-8-fighting-game-reveals-gameplay-trailer-for-bryan-fury/.198566</t>
+  </si>
+  <si>
+    <t>Game under development for PS5, Xbox Series X|S, PC</t>
+  </si>
+  <si>
+    <t>The Masterful Cat Is Depressed Again Today Anime Previewed in 2nd Promo Video</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/the-masterful-cat-is-depressed-again-today-anime-previewed-in-2nd-promo-video/.198564</t>
+  </si>
+  <si>
+    <t>somei performs opening theme for series premiering on July 7</t>
+  </si>
+  <si>
+    <t>Gundam Gets The Battle Tales of Flanagan Boon U.C. Spinoff Manga</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/gundam-gets-the-battle-tales-of-flanagan-boon-u.c-spinoff-manga/.198558</t>
+  </si>
+  <si>
+    <t>New manga centers on minor character Flanagan Boon from episode 28 of Mobile Suit Gundam</t>
+  </si>
+  <si>
+    <t>Tatsuwo's Dawn of the Witch Manga Adaptation Ends</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/tatsuwo-dawn-of-the-witch-manga-adaptation-ends/.198540</t>
+  </si>
+  <si>
+    <t>Manga launched in 2019</t>
+  </si>
+  <si>
+    <t>Anime Limited to Release Great Pretender Anime on Home Video in U.S., Canada, U.K., Ireland</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/anime-limited-to-release-great-pretender-anime-on-home-video-in-u.s-canada-u.k-ireland/.198544</t>
+  </si>
+  <si>
+    <t>Company also announces Collector's Edition for anime series</t>
+  </si>
+  <si>
+    <t>Yen Press Reveals New Licenses Including Kana Akatsuki's Award-Winning Agent of the Four Seasons Novel</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-27/yen-press-reveals-new-licenses-including-kana-akatsuki-award-winning-agent-of-the-four-seasons-novel/.198529</t>
+  </si>
+  <si>
+    <t>Fruits Basket artbook, Higurashi When They Cry: GOU anthology, more licensed</t>
+  </si>
+  <si>
+    <t>Live-Action 'Do It Yourself!!' Series Unveils Cast, July 4 Premiere</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/live-action-do-it-yourself-series-unveils-cast-july-4-premiere/.198542</t>
+  </si>
+  <si>
+    <t>Hinatazaka46 idol Hinano Kamimura plays protagonist Serufu</t>
+  </si>
+  <si>
+    <t>The Fable: The Second Contact Manga Ends in 5 Chapters</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/the-fable-the-second-contact-manga-ends-in-5-chapters/.198534</t>
+  </si>
+  <si>
+    <t>Sequel series about genius hitman launched in July 2021</t>
+  </si>
+  <si>
+    <t>Manga Up! Launches The Red Ranger Becomes an Adventurer in Another World Manga in English, Adds Durarara!! Manga</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/manga-up-launches-the-red-ranger-becomes-an-adventurer-in-another-world-manga-in-english-adds-/.198512</t>
+  </si>
+  <si>
+    <t>The Red Ranger Becomes an Adventurer in Another World manga launched in November 2020</t>
+  </si>
+  <si>
+    <t>Bleach: Thousand-Year Blood War Anime's Part 2 Premieres Overseas on July 8</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/bleach-thousand-year-blood-war-anime-part-2-premieres-overseas-on-july-8/.198548</t>
+  </si>
+  <si>
+    <t>Anime premieres in U.S. on Hulu, Latin America on Star+, in other select countries internationally on Disney+ at 7:30 AM PDT.</t>
+  </si>
+  <si>
+    <t>Aya Shouoto Ends Kagetoki-sama no Kurenai Kōkyū Manga, Launches The Demon Prince of Momochi House Sequel Manga</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/aya-shouoto-ends-kagetoki-sama-no-kurenai-kokyu-manga-launches-the-demon-prince-of-momochi-house-/.198530</t>
+  </si>
+  <si>
+    <t>The Demon Prince of Momochi House sequel manga launches on July 24</t>
+  </si>
+  <si>
+    <t>The Eminence in Shadow 2nd Season's 2nd Video Reveals More Cast, October 12 Debut, 12-Episode Length</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/the-eminence-in-shadow-2nd-season-2nd-video-reveals-more-cast-october-debut-12-episode-length/.198547</t>
+  </si>
+  <si>
+    <t>Tsuyoshi Koyama, Shizuka Itou, Tomokazu Sugita, Ai Kakuma join cast</t>
+  </si>
+  <si>
+    <t>Knight of the Ice's Yayoi Ogawa Launches New Manga</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/knight-of-the-ice-yayoi-ogawa-launches-new-manga/.198533</t>
+  </si>
+  <si>
+    <t>Eme to Hime launches on June 23</t>
+  </si>
+  <si>
+    <t>K MANGA's Launch Lineup Includes 30+ Manga With English Debuts in U.S.</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-27/k-manga-launch-lineup-includes-30-manga-with-english-debuts-in-u.s/.198036</t>
+  </si>
+  <si>
+    <t>capeta, Baby Steps, Tomodachi Game, Ace of the Diamond Act II, more debut in English on new service</t>
+  </si>
+  <si>
+    <t>Marvelous Unveils Project Magia Game With Designs by Fairy Tail's Hiro Mashima</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-26/marvelous-unveils-project-magia-game-with-designs-by-fairy-tail-hiro-mashima/.198463</t>
+  </si>
+  <si>
+    <t>Game's theme is "A New Frontier"</t>
+  </si>
+  <si>
+    <t>Crunchyroll Adds Tenchi Muyo! GXP Paradise Starting Anime</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-26/crunchyroll-adds-tenchi-muyo-gxp-paradise-starting-anime/.198490</t>
+  </si>
+  <si>
+    <t>3-episode OVA ships as BD in Japan on May 26, June 30, July 28</t>
+  </si>
+  <si>
+    <t>Deathbound Duke's Daughter's Manga Adaptation Ends</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-28/deathbound-duke-daughter-manga-adaptation-ends/.198531</t>
+  </si>
+  <si>
+    <t>Adaptation of isekai fantasy novel series launched in June 2020</t>
   </si>
   <si>
     <t>Forever Entertainment Delays Launch of Front Mission 2: Remake Game</t>
@@ -213,13 +493,22 @@
     <t>Game was previously slated for release for Switch in June</t>
   </si>
   <si>
-    <t>Yen Press Reveals New Licenses Including Kana Akatsuki's Award-Winning Agent of the Four Seasons Novel</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-27/yen-press-reveals-new-licenses-including-kana-akatsuki-award-winning-agent-of-the-four-seasons-novel/.198529</t>
-  </si>
-  <si>
-    <t>Fruits Basket artbook, Higurashi When They Cry: GOU anthology, more licensed</t>
+    <t>The Eminence in Shadow: Master of Garden Game Launches for PC with Cross-Platform Play</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-25/the-eminence-in-shadow-master-of-garden-game-launches-for-pc-with-cross-platform-play/.198443</t>
+  </si>
+  <si>
+    <t>PC game joins iOS/Android versions on Thursday</t>
+  </si>
+  <si>
+    <t>Square Enix Reveals New Dragon Quest Monsters Game for Series' 25th Anniversary</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-26/square-enix-reveals-new-dragon-quest-monsters-game-for-series-25th-anniversary/.198505</t>
+  </si>
+  <si>
+    <t>New game in development for Switch</t>
   </si>
   <si>
     <t>Mita Ori Launches Our Dining Table Sequel Manga</t>
@@ -231,15 +520,6 @@
     <t>Bokura no Shokutaku: Okawari launched on March 22</t>
   </si>
   <si>
-    <t>K MANGA's Launch Lineup Includes 30+ Manga With English Debuts in U.S.</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-27/k-manga-launch-lineup-includes-30-manga-with-english-debuts-in-u.s/.198036</t>
-  </si>
-  <si>
-    <t>capeta, Baby Steps, Tomodachi Game, Ace of the Diamond Act II, more debut in English on new service</t>
-  </si>
-  <si>
     <t>Japanese Animation TV Ranking, May 15-21</t>
   </si>
   <si>
@@ -627,345 +907,23 @@
     <t>Story featured in trailer</t>
   </si>
   <si>
-    <t>Dragon's Dogma 2 Game's Trailer Reveals PS5, Xbox Series X|S, Steam Release</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/dragon-dogma-2-game-trailer-reveals-ps5-xbox-series-x-s-steam-release/.198409</t>
-  </si>
-  <si>
-    <t>Gameplay footage shown in trailer</t>
-  </si>
-  <si>
-    <t>Resident Evil 4 Remake VR Mode Trailer Posted</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/resident-evil-4-remake-vr-mode-trailer-posted/.198408</t>
-  </si>
-  <si>
-    <t>Free VR mode update will be available for PS VR2 device on PS5</t>
-  </si>
-  <si>
-    <t>Square Enix Unveils FOAMSTARS 4v4 Multiplayer Shooter</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/square-enix-unveils-foamstars-4v4-multiplayer-shooter/.198407</t>
-  </si>
-  <si>
-    <t>Game slated for PS5/PS4</t>
-  </si>
-  <si>
-    <t>Penguin Box's Odekake Kozame Manga About Young Shark Gets Anime</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/penguin-box-odekake-kozame-manga-about-young-shark-gets-anime/.198394</t>
-  </si>
-  <si>
-    <t>Promo video, visual unveiled</t>
-  </si>
-  <si>
-    <t>Shakugan no Shana Light Novels Get 1st New Volume in 11 Years</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/shakugan-no-shana-light-novels-get-1st-new-volume-in-11-years/.198348</t>
-  </si>
-  <si>
-    <t>New volume is 4th Shakugan no Shana S short story collection</t>
-  </si>
-  <si>
-    <t>Attack on Titan The Final Season Part 3 Anime's 2nd Half Reveals New Visual</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/daily-briefs/2023-05-21/attack-on-titan-the-final-season-part-3-anime-2nd-half-reveals-new-visual/.198260</t>
-  </si>
-  <si>
-    <t>The MAPPA Stage 2023 event on Sunday revealed a new visual for the second half of the Attack on Titan The Final Season Part 3 (Shingeki no Kyojin The Final Season Kanketsu-hen) anime. The second half will premiere this fall. The first half aired as a one-hour special on March 3 (effectively, March 4 in Japan). Crunchyroll streamed the first half under the title Attack on Titan Final Season The Fin...</t>
-  </si>
-  <si>
-    <t>'Reborn as a Vending Machine, I Now Wander the Dungeon' Anime's Full Promo Video Reveals More Cast &amp; Staff, Opening Song, July 5 Debut</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/reborn-as-a-vending-machine-i-now-wander-the-dungeon-anime-full-promo-video-reveals-more-cast-and-/.198391</t>
-  </si>
-  <si>
-    <t>Shiki Aoki, Miyu Tomita, Kazuya Nakai, Ai Kayano, more join isekai fantasy</t>
-  </si>
-  <si>
-    <t>Quintessential Quintuplets' Negi Haruba Designs Original Anime Pon no Michi</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/quintessential-quintuplets-negi-haruba-designs-original-anime-pon-no-michi/.198352</t>
-  </si>
-  <si>
-    <t>OLM's January anime about girls turning mahjong parlor into their hangout</t>
-  </si>
-  <si>
-    <t>Saint Seiya Manga's Live-Action Knights of the Zodiac Film Crosses US$920,000 in U.S. Box Office</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-22/saint-seiya-manga-live-action-knights-of-the-zodiac-film-crosses-usd920000-in-u.s-box-office/.198312</t>
-  </si>
-  <si>
-    <t>Film debuted in U.S. on May 12</t>
-  </si>
-  <si>
-    <t>Metal Gear Solid 3: Snake Eater Game Gets Remake for PS5</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/metal-gear-solid-3-snake-eater-game-gets-remake-for-ps5/.198405</t>
-  </si>
-  <si>
-    <t>Metal Gear Solid △: Snake Eater, Metal Gear Solid: Master Collection Volume 1 announced</t>
-  </si>
-  <si>
-    <t>Sagu Aoyama, Kintsuba's Spicy Days! Manga Ends With Next Chapter</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/sagu-aoyama-kintsuba-spicy-days-manga-ends-with-next-chapter/.198389</t>
-  </si>
-  <si>
-    <t>Manga about island girls, curry launched in 2021</t>
-  </si>
-  <si>
-    <t>Yoshitaka Ushiki's Oikaze no Jin Manga Ends With Next Chapter</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/yoshitaka-ushiki-oikaze-no-jin-manga-ends-with-next-chapter/.198392</t>
-  </si>
-  <si>
-    <t>Manga about young delivery man launched in July 2021</t>
-  </si>
-  <si>
-    <t>Saru Hashino Launches Toku Touken Ranbu: Hanamaru ~Setsugetsuka~ Anime Film's Manga Adaptation</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/saru-hashino-launches-toku-touken-ranbu-hanamaru-~setsugetsuka~-anime-film-manga-adaptation/.198393</t>
-  </si>
-  <si>
-    <t>First chapter published on Wednesday</t>
-  </si>
-  <si>
-    <t>Demon Slayer: Swordsmith Village Arc Anime's English Dub Debuts on May 28</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/demon-slayer-swordsmith-village-arc-anime-english-dub-debuts-on-may-28/.198382</t>
-  </si>
-  <si>
-    <t>Crunchyroll posts trailer for dub</t>
-  </si>
-  <si>
-    <t>BanG Dream! It's MyGo!!!!! Anime Premieres With 3 Episodes on June 29</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/bang-dream-its-mygo-anime-premieres-with-3-episodes-on-june-29/.198395</t>
-  </si>
-  <si>
-    <t>Videos, theme songs, visual unveiled</t>
-  </si>
-  <si>
-    <t>Soaring Sky! Pretty Cure Anime Gets Puzzle Game Collection on Switch on August 10</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/soaring-sky-pretty-cure-anime-gets-puzzle-game-collection-on-switch-on-august-10/.198376</t>
-  </si>
-  <si>
-    <t>Hirogaru Sky! Precure Hirogaru! Puzzle Collection contains mini games</t>
-  </si>
-  <si>
-    <t>Harvest Moon: The Winds of Anthos Game Launches on September 26</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/harvest-moon-the-winds-of-anthos-game-launches-on-september-26/.198370</t>
-  </si>
-  <si>
-    <t>Game launches on Switch, PS5, PS4, Xbox Series X|S, Xbox One, PC via Steam</t>
-  </si>
-  <si>
-    <t>Hiroyuki's 'Girlfriend, Girlfriend' Manga Ends on May 24 (Updated)</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-04-13/hiroyuki-girlfriend-girlfriend-manga-ends-on-may-24/.197037</t>
-  </si>
-  <si>
-    <t>Manga also takes break in Weekly Shōnen Magazine's next issue</t>
-  </si>
-  <si>
-    <t>Demon Slayer: Swordsmith Village Arc Anime Casts Kōichi Yamadera as Zohakuten</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-21/demon-slayer-swordsmith-village-arc-anime-casts-koichi-yamadera-as-zohakuten/.198294</t>
-  </si>
-  <si>
-    <t>New visual for anime also unveiled</t>
-  </si>
-  <si>
-    <t>The 6th Loop: I'm Finally Free of Auto Mode in this Otome Game Manga Ends with 6th Volume</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/the-6th-loop-im-finally-free-of-auto-mode-in-this-otome-game-manga-ends-with-6th-volume/.198351</t>
-  </si>
-  <si>
-    <t>Isekai fantasy-otome game manga launched in 2020</t>
-  </si>
-  <si>
-    <t>Kodansha USA Licenses A Kingdom of Quartz Manga</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/kodansha-usa-licenses-a-kingdom-of-quartz-manga/.198360</t>
-  </si>
-  <si>
-    <t>BOMHAT's manga debuts in English in spring 2024</t>
-  </si>
-  <si>
-    <t>Saki, Final Fantasy XIV Collaboration Mahjong Manga Ends with 2nd Volume</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/saki-final-fantasy-xiv-collaboration-mahjong-manga-ends-with-2nd-volume/.198349</t>
-  </si>
-  <si>
-    <t>Manga's final volume ships on July 25</t>
-  </si>
-  <si>
-    <t>Frieren: Beyond Journey's End Series Gets 5 1-Shot Spinoff Manga</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/frieren-beyond-journey-end-series-gets-5-1-shot-spinoff-manga/.198347</t>
-  </si>
-  <si>
-    <t>Sunday Webry website launches 1 spinoff manga daily from Monday to Friday</t>
-  </si>
-  <si>
-    <t>Hideo Kojima – Connecting Worlds Documentary Debuts at Tribeca Film Festival on June 17</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/hideo-kojima-connecting-worlds-documentary-debuts-at-tribeca-film-festival-on-june-17/.198356</t>
-  </si>
-  <si>
-    <t>Metal Gear Solid, Death Stranding director participates in extended Q&amp;A session at screening</t>
-  </si>
-  <si>
-    <t>Caressing My Hibernating Bear Anime Reveals English Dub Cast</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/caressing-my-hibernating-bear-anime-reveals-english-dub-cast/.198353</t>
-  </si>
-  <si>
-    <t>BL anime debuted in July 2022</t>
-  </si>
-  <si>
-    <t>Short Shorts Film Festival &amp; Asia 2023 Event Virtually Screens Animated Shorts Until July 10</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/short-shorts-film-festival-and-asia-2023-event-virtually-screens-animated-shorts-until-july-10/.198336</t>
-  </si>
-  <si>
-    <t>14 animated short films by Japanese creators stream worldwide for free</t>
-  </si>
-  <si>
-    <t>Blue Protocol Online Action RPG Launches in Japan on June 14, Delayed in West to 2024 (Updated)</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/daily-briefs/2023-05-23/blue-protocol-online-action-rpg-launches-in-japan-on-june-14-delayed-in-west-to-2024/.198357</t>
-  </si>
-  <si>
-    <t>Bandai Namco announced on Tuesday that Project Sky Blue's multiplayer online action role-playing game Blue Protocol will launch for PC on June 14 in Japan. The service's start time will be revealed at a later date. Pre-registration is now available. Update: Bandai Namco also announced that the game has been delayed in the West to 2024. The game was originally scheduled to launch globally for free ...</t>
-  </si>
-  <si>
-    <t>Undead Girl Murder Farce Anime Casts Reina Kondo</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/undead-girl-murder-farce-anime-casts-reina-kondo/.198355</t>
-  </si>
-  <si>
-    <t>Kondo plays vampire Carmilla in July anime</t>
-  </si>
-  <si>
-    <t>The Super Mario Bros. Movie Becomes #3 Animated Film of All-Time Globally</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-22/the-super-mario-bros-movie-becomes-no.3-animated-film-of-all-time-globally/.198309</t>
-  </si>
-  <si>
-    <t>Film earns estimated US$16,531,705, stays at #2 in its 7th weekend in the U.S. box office</t>
-  </si>
-  <si>
-    <t>Classroom for Heroes Anime's New Video Reveals More Cast</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-21/classroom-for-heroes-anime-new-video-reveals-more-cast/.198298</t>
-  </si>
-  <si>
-    <t>Eri Yukimura, Haruka Shiraishi, Sarah Emi Bridcutt, Aya Uchida, 6 more join cast</t>
-  </si>
-  <si>
-    <t>Bocchi the Rock! Anime Gets Compilation Film Next Spring</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-21/bocchi-the-rock-anime-gets-compilation-film-next-spring/.198288</t>
-  </si>
-  <si>
-    <t>TV anime of Aki Hamaji's 4-panel manga aired last fall</t>
-  </si>
-  <si>
-    <t>Toei, France's La Cachette Collaborate on Le College Noir Animation</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/toei-france-la-cachette-collaborate-on-le-college-noir-animation/.198354</t>
-  </si>
-  <si>
-    <t>Based on Ulysse Malassagne's comic of 5 youths finding missing friend in mountain forests</t>
-  </si>
-  <si>
-    <t>IDOLiSH 7 Franchise's Theatrical Anime Streams Opening Concert Scene</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-23/idolish-7-franchise-theatrical-anime-streams-opening-concert-scene/.198337</t>
-  </si>
-  <si>
-    <t>Scene features "MONSTER GENERATiON" song</t>
-  </si>
-  <si>
-    <t>Ōoku: The Inner Chambers Anime's English-Subtitled Trailer Reveals June 29 Debut</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-22/ooku-the-inner-chambers-anime-english-subtitled-trailer-reveals-june-29-debut/.198341</t>
-  </si>
-  <si>
-    <t>Noriyuki Abe directs anime at Studio DEEN</t>
-  </si>
-  <si>
-    <t>Liar Liar Anime Reveals July 8 Premiere Date</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/daily-briefs/2023-05-22/liar-liar-anime-reveals-july-8-premiere-date/.198302</t>
-  </si>
-  <si>
-    <t>The official website for the anime of Haruki Kuō's Liar Liar (not related to Renjuro Kindaichi's Liar x Liar manga) light novel series revealed the anime's July 8 premiere date on Monday. The anime will premiere on Tokyo MX and Sun TV on July 8 at 10:30 p.m. (9:30 a.m. EDT), and on BS Asahi on July 9. The "academy x mind game x romantic comedy" story is set on the "Academy" island where students b...</t>
-  </si>
-  <si>
-    <t>The Fox's Kiss/Black Marriage's Saki Aikawa Launches New Manga</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-22/the-fox-kiss-black-marriage-saki-aikawa-launches-new-manga/.198287</t>
-  </si>
-  <si>
-    <t>Nidome no Koi wa, Hayami-kun to manga launches on June 5</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Abysswatcherbel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;gt;This is the place! \(and has been for a year now\)
-Happy birthday thread!
-Also this kills the chance of Secelia dote tomorrow, rip</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltc39n/</t>
+    <t>AnimeMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hello /r/anime, a new daily thread has been posted! Please follow
+[this link](/r/anime/comments/13twlqm/anime_questions_recommendations_and_discussion/) to move on to the new thread
+or [search for the latest thread](/r/anime/search?q=flair%3ADaily&amp;amp;restrict_sr=on&amp;amp;sort=new).
+[](#heartbot "And don't forget to be nice to new users!")</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlxel6f/</t>
   </si>
   <si>
     <t>alotmorealots</t>
@@ -981,32 +939,6 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlu02b8/</t>
   </si>
   <si>
-    <t>WeeziMonkey</t>
-  </si>
-  <si>
-    <t>Tfw you planned to eat your dinner during the new Jigokuraku episode only to find out it's delayed</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlu05rv/</t>
-  </si>
-  <si>
-    <t>Watching Danmachi for the first time. Seeing a fantasy RPG world with an adventurer main character not start with reincarnation in the first 5 minutes, my thought was "wait, that's illegal".</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlu6eln/</t>
-  </si>
-  <si>
-    <t>Krippled_kun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy shit Macross: Do You Remember Love? was spectacular. Fucking blew away all my expectations. Initially thought that Macross: Do You Remember Love? was a summary/compilation of the original Macross series in movie form. But damn that was not the correct assessment. Improved on pretty much every aspect of the original: animation was on steroids, the theme is a fucking banger, the romance felt so much better, and characters  generally felt much more well written. The ending 15 minutes were so \*chefs kiss\*. 
-Was originally gonna skip this movie to move on to the Macross Plus since I've heard great things about Macross Plus' production. Thank god I didn't skip or I would've ended up being a disgrace of a mecha fan. 
-Bravo to Kawamori Shouji and the rest of the staff. So fucking excited now to watch the rest of the franchise.</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlugqfb/</t>
-  </si>
-  <si>
     <t>KendotsX</t>
   </si>
   <si>
@@ -1018,6 +950,15 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt2p4q/</t>
   </si>
   <si>
+    <t>WeeziMonkey</t>
+  </si>
+  <si>
+    <t>Watching Danmachi for the first time. Seeing a fantasy RPG world with an adventurer main character not start with reincarnation in the first 5 minutes, my thought was "wait, that's illegal".</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlu6eln/</t>
+  </si>
+  <si>
     <t>MyrnaMountWeazel</t>
   </si>
   <si>
@@ -1027,6 +968,16 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltwfn6/</t>
+  </si>
+  <si>
+    <t>SMSmith230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;gt;[This is the place! (and has been for a year now)](https://preview.redd.it/pdy3s9tkm72b1.png?width=1920&amp;amp;format=png&amp;amp;auto=webp&amp;amp;v=enabled&amp;amp;s=2816a6749e809f9dd216b0e159d7e4061db328ef)
+Death Flag activated!</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt3ydj/</t>
   </si>
   <si>
     <t>Massaman95</t>
@@ -1056,16 +1007,6 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt367k/</t>
   </si>
   <si>
-    <t>SMSmith230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;gt;[This is the place! (and has been for a year now)](https://preview.redd.it/pdy3s9tkm72b1.png?width=1920&amp;amp;format=png&amp;amp;auto=webp&amp;amp;v=enabled&amp;amp;s=2816a6749e809f9dd216b0e159d7e4061db328ef)
-Death Flag activated!</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt3ydj/</t>
-  </si>
-  <si>
     <t>baboon_bassoon</t>
   </si>
   <si>
@@ -1073,6 +1014,26 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltejwd/</t>
+  </si>
+  <si>
+    <t>LimeyLassen</t>
+  </si>
+  <si>
+    <t>Any Tearmoon Empire enjoyers? I'm really looking forward to the anime adapation, it looks high quality.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlwlm53/</t>
+  </si>
+  <si>
+    <t>Abysswatcherbel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;gt;This is the place! \(and has been for a year now\)
+Happy birthday thread!
+Also this kills the chance of Secelia dote tomorrow, rip</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltc39n/</t>
   </si>
   <si>
     <t>yorocky89A</t>
@@ -1107,31 +1068,15 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltoo8r/</t>
   </si>
   <si>
-    <t>ThisShitisDope</t>
-  </si>
-  <si>
-    <t>Bocchi the Rock's new song [Into the Light with translation](https://www.youtube.com/watch?v=pCe6Bq739qQ) has got me ecstatic in my 12 am reverie. I can't count how many BtR has made me cry already.</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlvpdpp/</t>
-  </si>
-  <si>
-    <t>LimeyLassen</t>
-  </si>
-  <si>
-    <t>Any Tearmoon Empire enjoyers? I'm really looking forward to the anime adapation, it looks high quality.</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlwlm53/</t>
-  </si>
-  <si>
-    <t>QuanxiEnjoyer247</t>
-  </si>
-  <si>
-    <t>Hello my fellow Anime Enjoyers. If there are any Germans among you id like to ask where you buy your merch? Id love to start getting into it a bit so anything from shirts, stickers, figures and so on or actual Manga and Blue-Rays as well : ) I struggle to find good online Stories so id appreciate any help I can get. Enjoy your Weekend</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt57dx/</t>
+    <t>Krippled_kun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy shit Macross: Do You Remember Love? was spectacular. Fucking blew away all my expectations. Initially thought that Macross: Do You Remember Love? was a summary/compilation of the original Macross series in movie form. But damn that was not the correct assessment. Improved on pretty much every aspect of the original: animation was on steroids, the theme is a fucking banger, the romance felt so much better, and characters  generally felt much more well written. The ending 15 minutes were so \*chefs kiss\*. 
+Was originally gonna skip this movie to move on to the Macross Plus since I've heard great things about Macross Plus' production. Thank god I didn't skip or I would've ended up being a disgrace of a mecha fan. 
+Bravo to Kawamori Shouji and the rest of the staff. So fucking excited now to watch the rest of the franchise.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlugqfb/</t>
   </si>
   <si>
     <t>LoanGrahamXCarkeys</t>
@@ -1144,6 +1089,40 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltabg0/</t>
   </si>
   <si>
+    <t>TheRedForever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For you Macross fans in the U.S., the theater list for the June 4th Walkure final concert has been posted on the Live Viewing Japan website.  
+https://liveviewing.jp/overseas/walkure-lastmission-eng/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlw0ix2/</t>
+  </si>
+  <si>
+    <t>Tfw you planned to eat your dinner during the new Jigokuraku episode only to find out it's delayed</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlu05rv/</t>
+  </si>
+  <si>
+    <t>Larielia</t>
+  </si>
+  <si>
+    <t>What shows are similar to the Atelier games?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltzbxq/</t>
+  </si>
+  <si>
+    <t>QuanxiEnjoyer247</t>
+  </si>
+  <si>
+    <t>Hello my fellow Anime Enjoyers. If there are any Germans among you id like to ask where you buy your merch? Id love to start getting into it a bit so anything from shirts, stickers, figures and so on or actual Manga and Blue-Rays as well : ) I struggle to find good online Stories so id appreciate any help I can get. Enjoy your Weekend</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt57dx/</t>
+  </si>
+  <si>
     <t>KaleidoArachnid</t>
   </si>
   <si>
@@ -1154,6 +1133,33 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltet6r/</t>
   </si>
   <si>
+    <t>jojoismyreligion</t>
+  </si>
+  <si>
+    <t>I'm 30 episodes into Gintama. It's been episodic so far. When does longer arcs come around ?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltormf/</t>
+  </si>
+  <si>
+    <t>Emergency-Pineapples</t>
+  </si>
+  <si>
+    <t>Does Gintama have any character development at any point?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlu0hyn/</t>
+  </si>
+  <si>
+    <t>ThisShitisDope</t>
+  </si>
+  <si>
+    <t>Bocchi the Rock's new song [Into the Light with translation](https://www.youtube.com/watch?v=pCe6Bq739qQ) has got me ecstatic in my 12 am reverie. I can't count how many BtR has made me cry already.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlvpdpp/</t>
+  </si>
+  <si>
     <t>soberdruguser</t>
   </si>
   <si>
@@ -1163,50 +1169,13 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlv6wki/</t>
   </si>
   <si>
-    <t>TheRedForever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For you Macross fans in the U.S., the theater list for the June 4th Walkure final concert has been posted on the Live Viewing Japan website.  
-https://liveviewing.jp/overseas/walkure-lastmission-eng/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlw0ix2/</t>
-  </si>
-  <si>
-    <t>jojoismyreligion</t>
-  </si>
-  <si>
-    <t>I'm 30 episodes into Gintama. It's been episodic so far. When does longer arcs come around ?</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltormf/</t>
-  </si>
-  <si>
-    <t>Larielia</t>
-  </si>
-  <si>
-    <t>What shows are similar to the Atelier games?</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltzbxq/</t>
-  </si>
-  <si>
-    <t>Emergency-Pineapples</t>
-  </si>
-  <si>
-    <t>Does Gintama have any character development at any point?</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlu0hyn/</t>
-  </si>
-  <si>
-    <t>ikarus_77</t>
-  </si>
-  <si>
-    <t>I usually get the animes i watch from shorts on YouTube and amv's i recently saw an amv with Hellsing ultimate so I want to ask if it isn't too dark and how many versions/seasons there are bc i have to plan things i watch or else my sleep schedule is f*ed</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt4fzq/</t>
+    <t>Cr4zko</t>
+  </si>
+  <si>
+    <t>Is it just me or anime was better in the 2000s? Gah, just can't find anything that's my groove lately.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlvyby4/</t>
   </si>
   <si>
     <t>LoPanDidNothingWrong</t>
@@ -1219,51 +1188,6 @@
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jltq3rm/</t>
   </si>
   <si>
-    <t>badcupcakehoarder</t>
-  </si>
-  <si>
-    <t>What anime can you think of that have a non-romance focus plot but romance is one of the main motivation/catalysts for the main character to start the story?</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlv35kd/</t>
-  </si>
-  <si>
-    <t>Cr4zko</t>
-  </si>
-  <si>
-    <t>Is it just me or anime was better in the 2000s? Gah, just can't find anything that's my groove lately.</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlvyby4/</t>
-  </si>
-  <si>
-    <t>geargrinder_11</t>
-  </si>
-  <si>
-    <t>Hi! I’m looking for a more chill anime, more slice of life style. More just chilling out anime, like laid back camp, or something similar. Preferably in a modern setting, or flying witch which is a more misadventures of a character(s)</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlvz5ie/</t>
-  </si>
-  <si>
-    <t>[deleted]</t>
-  </si>
-  <si>
-    <t>[removed]</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlw8no3/</t>
-  </si>
-  <si>
-    <t>jen___22</t>
-  </si>
-  <si>
-    <t>Can you recommend new anime?</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlwj657/</t>
-  </si>
-  <si>
     <t>rabnabombshell</t>
   </si>
   <si>
@@ -1271,6 +1195,15 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlufjq4/</t>
+  </si>
+  <si>
+    <t>RichPen7644</t>
+  </si>
+  <si>
+    <t>Anyone have any good anime recommendations for this season?, I feel like it is getting harder and harder to find a good anime to start</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlwztq6/</t>
   </si>
   <si>
     <t>NordF150</t>
@@ -1283,6 +1216,382 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jluqou9/</t>
+  </si>
+  <si>
+    <t>ikarus_77</t>
+  </si>
+  <si>
+    <t>I usually get the animes i watch from shorts on YouTube and amv's i recently saw an amv with Hellsing ultimate so I want to ask if it isn't too dark and how many versions/seasons there are bc i have to plan things i watch or else my sleep schedule is f*ed</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlt4fzq/</t>
+  </si>
+  <si>
+    <t>badcupcakehoarder</t>
+  </si>
+  <si>
+    <t>What anime can you think of that have a non-romance focus plot but romance is one of the main motivation/catalysts for the main character to start the story?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlv35kd/</t>
+  </si>
+  <si>
+    <t>geargrinder_11</t>
+  </si>
+  <si>
+    <t>Hi! I’m looking for a more chill anime, more slice of life style. More just chilling out anime, like laid back camp, or something similar. Preferably in a modern setting, or flying witch which is a more misadventures of a character(s)</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlvz5ie/</t>
+  </si>
+  <si>
+    <t>[deleted]</t>
+  </si>
+  <si>
+    <t>[removed]</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlw8no3/</t>
+  </si>
+  <si>
+    <t>jen___22</t>
+  </si>
+  <si>
+    <t>Can you recommend new anime?</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlwj657/</t>
+  </si>
+  <si>
+    <t>FuckinGuiltyGearWeeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone have recommendations for romance anime?  
+Off the top my head I've seen, (romance anime)
+Bunny Senpai
+Banished from the heroes party 
+Spice and Wolf 
+Chivalry of a failed knight
+Dropped Vermeil in Gold 
+Kaguya-sama 1st season</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlwos26/</t>
+  </si>
+  <si>
+    <t>Lychee_fart4236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone have recommendations for animes with hikikomoris in them? 
+I'm looking for an anime with hikikomoris in them.
+I've watched welcome to the NHK and I love that anime. It's one of my favorites.
+I don't really know if watamote is also considered a hiki, but I watched that one as well and I enjoyed it.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlwqygs/</t>
+  </si>
+  <si>
+    <t>Hairy_Departure1</t>
+  </si>
+  <si>
+    <t>Where is [this place](https://i.imgur.com/vMqVldV.jpg) that comes up at the ED in My Love Story with Yamada-kun at Lv999</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/anime/comments/13t3fba/anime_questions_recommendations_and_discussion/jlx12ek/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.comundefined</t>
+  </si>
+  <si>
+    <t>Upvotes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Suzume Bags Over 14 Billion Yen; Surpasses Weathering With You</t>
+  </si>
+  <si>
+    <t>suguruscurse</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13v7vc4/suzume_bags_over_14_billion_yen_surpasses/</t>
+  </si>
+  <si>
+    <t>Cygames Reveals Bang Brave Bang Bravern Original TV Anime</t>
+  </si>
+  <si>
+    <t>Aggravating-Lead29</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ur4t3/cygames_reveals_bang_brave_bang_bravern_original/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ur1g3/the_first_slam_dunk_surpasses_weathering_with_you/</t>
+  </si>
+  <si>
+    <t>'Rascal Does Not Dream of a Sister Venturing Out'– Completion Announcement Screening and Release Date Revealed</t>
+  </si>
+  <si>
+    <t>asianlegends</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13uonxr/rascal_does_not_dream_of_a_sister_venturing_out/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13uoks5/the_masterful_cat_is_depressed_again_today_anime/</t>
+  </si>
+  <si>
+    <t>The Eminence in Shadow 2nd Season's 2nd Video Reveals More Cast, October Debut, 12-Episode Length</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13uf5fo/the_eminence_in_shadow_2nd_seasons_2nd_video/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13uf2si/bleach_thousandyear_blood_war_animes_video/</t>
+  </si>
+  <si>
+    <t>Hajime no Ippo Author Confused by G Gundam Episode 12</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13u42ra/hajime_no_ippo_author_confused_by_g_gundam/</t>
+  </si>
+  <si>
+    <t>Megumi Ishitani Rumored To Be Working On Luffy's Gear 5 Episodes</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13u26rc/megumi_ishitani_rumored_to_be_working_on_luffys/</t>
+  </si>
+  <si>
+    <t>New Trailer and Key Visual - Bleach Thousand Year Blood War Cour 2 Anime</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13tyk0o/new_trailer_and_key_visual_bleach_thousand_year/</t>
+  </si>
+  <si>
+    <t>"Blue Orchestra" Episode 8 Preceding Scene Cut Released</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13twgol/blue_orchestra_episode_8_preceding_scene_cut/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13tvn4y/zom_100_bucket_list_of_the_dead_anime_debuts_on/</t>
+  </si>
+  <si>
+    <t>Demon Slayer: Kimetsu no Yaiba Swordsmith Village Arc English Dub Begins May 28</t>
+  </si>
+  <si>
+    <t>realplayer16</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13t4uoh/demon_slayer_kimetsu_no_yaiba_swordsmith_village/</t>
+  </si>
+  <si>
+    <t>Michael B Jordan Reveals Why He Declined Offers To Direct Live-Action Adaptations Of Anime</t>
+  </si>
+  <si>
+    <t>Borgasmic_Peeza</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13t1ogr/michael_b_jordan_reveals_why_he_declined_offers/</t>
+  </si>
+  <si>
+    <t>Mashle: Magic And Magic Anime Announces Cast For Magia Lupus Organization Members</t>
+  </si>
+  <si>
+    <t>Oatmeel97</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13sqbtd/mashle_magic_and_magic_anime_announces_cast_for/</t>
+  </si>
+  <si>
+    <t>Crunchyroll Adds ‘Tenchi Muyo! GXP Paradise’ Anime Streaming</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13slv6g/crunchyroll_adds_tenchi_muyo_gxp_paradise_anime/</t>
+  </si>
+  <si>
+    <t>Mushoku Tensei Season 2 Reveals New Trailer, Release Date &amp;amp; Theme Songs</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13sc4ju/mushoku_tensei_season_2_reveals_new_trailer/</t>
+  </si>
+  <si>
+    <t>Veteran Mangaka Defends Oshi No Ko Anime Amid Recent Controversy</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13sbsez/veteran_mangaka_defends_oshi_no_ko_anime_amid/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13saryp/ai_no_idenshi_scifi_tv_animes_2nd_promo_video/</t>
+  </si>
+  <si>
+    <t>Kyoto Animation To Construct Two Memorials To Honour Arson Attack Victims</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13s9apl/kyoto_animation_to_construct_two_memorials_to/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13s9aiw/helck_tv_anime_reveals_promo_video_july_11/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13s9920/ragna_crimson_tv_animes_2nd_promo_video_reveals/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13s4irg/tsuyokute_new_saga_anime_delayed_from_july_2023/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13s3bxl/black_clover_sword_of_the_wizard_king_films/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13s2ezm/kenta_ishizakas_travel_manga_thats_journey_gets/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13rwzl8/delicious_in_dungeon_animes_teaser_trailer/</t>
+  </si>
+  <si>
+    <t>YOASOBI Releases Oshi No Ko Opening “Idol” In English Dub</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13rluw5/yoasobi_releases_oshi_no_ko_opening_idol_in/</t>
+  </si>
+  <si>
+    <t>One Piece Live-Action Poster Leaked, Fans Split On Design Changes</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13rjp3u/one_piece_liveaction_poster_leaked_fans_split_on/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13rcmda/sugar_apple_fairy_tale_anime_reveals_key_visual/</t>
+  </si>
+  <si>
+    <t>Diego Maradona Declares One Piece The Greatest Anime As His Facebook Account Gets Hacked</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13rc1oh/diego_maradona_declares_one_piece_the_greatest/</t>
+  </si>
+  <si>
+    <t>Penguin Box's Odekake Kozame Manga About Young Shark Gets Anime</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13r697k/penguin_boxs_odekake_kozame_manga_about_young/</t>
+  </si>
+  <si>
+    <t>Oshi No Ko Episode 6 Gets Criticized For Replicating Deceased Hana Kimura's Cyberbullying Tragedy</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13qtp9q/oshi_no_ko_episode_6_gets_criticized_for/</t>
+  </si>
+  <si>
+    <t>Record Of Ragnarok Season 2 Part 2 Release Date, Additional Cast &amp;amp; New Visual Revealed - Anime Explained</t>
+  </si>
+  <si>
+    <t>weebreviews</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13qsl2n/record_of_ragnarok_season_2_part_2_release_date/</t>
+  </si>
+  <si>
+    <t>Oshi No Ko Episode 8 Delayed; Recap Episode Will Air On May 31</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13qq0hb/oshi_no_ko_episode_8_delayed_recap_episode_will/</t>
+  </si>
+  <si>
+    <t>The First Slam Dunk Anime Movie To Premiere At Anime Expo North America</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ql93y/the_first_slam_dunk_anime_movie_to_premiere_at/</t>
+  </si>
+  <si>
+    <t>'Reborn as a Vending Machine, I Now Wander the Dungeon' Anime's Full Promo Video Reveals More Cast &amp;amp; Staff, Opening Song, July 5 Debut</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13qi6ue/reborn_as_a_vending_machine_i_now_wander_the/</t>
+  </si>
+  <si>
+    <t>Quintessential Quintuplets' Negi Haruba Designs Original Anime Pon no Michi</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13pngwi/quintessential_quintuplets_negi_haruba_designs/</t>
+  </si>
+  <si>
+    <t>Steins;Gate Live-Action Adaptation Was Scrapped Over Rintarou Okabe's Casting</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13pn0fx/steinsgate_liveaction_adaptation_was_scrapped/</t>
+  </si>
+  <si>
+    <t>KamiKatsu: Working For God In A Godless World Episode 8 Release Date Gets Delayed</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13pias6/kamikatsu_working_for_god_in_a_godless_world/</t>
+  </si>
+  <si>
+    <t>Ōoku: The Inner Chambers Anime's English-Subtitled Trailer Reveals June 29 Debut</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13pcpt2/ōoku_the_inner_chambers_animes_englishsubtitled/</t>
+  </si>
+  <si>
+    <t>Oshi No Ko Anime Accused Of Profiting From Hana Kimura’s Suicide Story</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13p3e1p/oshi_no_ko_anime_accused_of_profiting_from_hana/</t>
+  </si>
+  <si>
+    <t>2nd Mr. Osomatsu 6th Anniversary Anime Film Reveals Ending Song Artists</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ooysr/2nd_mr_osomatsu_6th_anniversary_anime_film/</t>
+  </si>
+  <si>
+    <t>Michael B. Jordan Visits Naruto Anime's Production Studio</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13oo31p/michael_b_jordan_visits_naruto_animes_production/</t>
+  </si>
+  <si>
+    <t>Final Ultraman CG Anime Season's Special Trailer Highlights Final Ultraman Form</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ohze4/final_ultraman_cg_anime_seasons_special_trailer/</t>
+  </si>
+  <si>
+    <t>Liar Liar Anime Reveals July 8 Premiere Date</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ohv7h/liar_liar_anime_reveals_july_8_premiere_date/</t>
+  </si>
+  <si>
+    <t>Paradox Live The Animation's Teaser Previews 1st Anime Footage</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13oadid/paradox_live_the_animations_teaser_previews_1st/</t>
+  </si>
+  <si>
+    <t>Mari Okada, MAPPA's Alice to Therese no Maboroshi Kōjō Anime Film Reveals Cast, Story, Teaser, September 15 Debut</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ntn9q/mari_okada_mappas_alice_to_therese_no_maboroshi/</t>
+  </si>
+  <si>
+    <t>Sunao Katabuchi's New Film Reveals Title, Video, Teaser Visual</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ntmzq/sunao_katabuchis_new_film_reveals_title_video/</t>
+  </si>
+  <si>
+    <t>Banana Fish Director Hiroko Utsumi, MAPPA Unveil Bucchigiri?! TV Anime for January</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13ntly6/banana_fish_director_hiroko_utsumi_mappa_unveil/</t>
+  </si>
+  <si>
+    <t>NEW JJK SEASON 2 TRAILER!!!</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/animenews/comments/13nqklx/new_jjk_season_2_trailer/</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +2216,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C79"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -2784,61 +3093,6 @@
         <v>296</v>
       </c>
     </row>
-    <row r="80" ht="50" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>297</v>
-      </c>
-      <c r="B80" t="s">
-        <v>298</v>
-      </c>
-      <c r="C80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="81" ht="50" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>300</v>
-      </c>
-      <c r="B81" t="s">
-        <v>301</v>
-      </c>
-      <c r="C81" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="82" ht="50" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B82" t="s">
-        <v>304</v>
-      </c>
-      <c r="C82" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" ht="50" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>306</v>
-      </c>
-      <c r="B83" t="s">
-        <v>307</v>
-      </c>
-      <c r="C83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" ht="50" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>309</v>
-      </c>
-      <c r="B84" t="s">
-        <v>310</v>
-      </c>
-      <c r="C84" t="s">
-        <v>311</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -2847,7 +3101,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -2857,10 +3111,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2868,365 +3122,1309 @@
     </row>
     <row r="2" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C23" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C25" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C27" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C28" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C30" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C32" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C33" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" t="s">
+        <v>398</v>
+      </c>
+      <c r="C35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>406</v>
+      </c>
+      <c r="B38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="39" ht="200" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>409</v>
       </c>
+      <c r="B39" t="s">
+        <v>410</v>
+      </c>
+      <c r="C39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" ht="200" customHeight="1" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="100" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
+        <v>457</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C26" t="s">
+        <v>460</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C29" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C30" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" t="s">
+        <v>468</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B32" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>471</v>
+      </c>
+      <c r="B33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>473</v>
+      </c>
       <c r="B34" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="C34" t="s">
-        <v>411</v>
+        <v>475</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>476</v>
+      </c>
+      <c r="B35" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>478</v>
+      </c>
+      <c r="B36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36" t="s">
+        <v>479</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B37" t="s">
+        <v>419</v>
+      </c>
+      <c r="C37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>482</v>
+      </c>
+      <c r="B38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" t="s">
+        <v>483</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>484</v>
+      </c>
+      <c r="B39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39" t="s">
+        <v>485</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" t="s">
+        <v>487</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>488</v>
+      </c>
+      <c r="B41" t="s">
+        <v>419</v>
+      </c>
+      <c r="C41" t="s">
+        <v>489</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" t="s">
+        <v>445</v>
+      </c>
+      <c r="C42" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>492</v>
+      </c>
+      <c r="B43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43" t="s">
+        <v>493</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>494</v>
+      </c>
+      <c r="B44" t="s">
+        <v>442</v>
+      </c>
+      <c r="C44" t="s">
+        <v>495</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>496</v>
+      </c>
+      <c r="B45" t="s">
+        <v>419</v>
+      </c>
+      <c r="C45" t="s">
+        <v>497</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>498</v>
+      </c>
+      <c r="B46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>500</v>
+      </c>
+      <c r="B47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" t="s">
+        <v>501</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>502</v>
+      </c>
+      <c r="B48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" t="s">
+        <v>503</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>504</v>
+      </c>
+      <c r="B49" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>506</v>
+      </c>
+      <c r="B50" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>508</v>
+      </c>
+      <c r="B51" t="s">
+        <v>445</v>
+      </c>
+      <c r="C51" t="s">
+        <v>509</v>
+      </c>
+      <c r="D51">
+        <v>63</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/anime_news.xlsx
+++ b/anime_news.xlsx
@@ -8,13 +8,14 @@
     <sheet sheetId="2" name="Anime News Network News" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Anime Megathread Top Comments" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="AnimeNews Subreddit" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Crunchyroll News" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="660">
   <si>
     <t>Title</t>
   </si>
@@ -205,6 +206,15 @@
     <t>The Kessoku Band Live: Kousei event announced a compilation movie for the Bocchi the Rock! anime series on Sunday, revealing a key visual (pictured) and an announcement promo. The movie will open in theaters in Japan in Spring 2024. The television anime produced by CloverWorks ai...</t>
   </si>
   <si>
+    <t>Voice Actress Saori Ōnishi Limits Work Temporarily Due to Dizziness, Difficulty Breathing</t>
+  </si>
+  <si>
+    <t>https://www.animenewsnetwork.com/news/2023-05-29/voice-actress-saori-onishi-limits-work-temporarily-due-to-dizziness-difficulty-breathing/.198588</t>
+  </si>
+  <si>
+    <t>Ōnishi's health worsened in past few days</t>
+  </si>
+  <si>
     <t>Spider-Man: Across the Spider-Verse Film Gets Manga Spinoff About Doc Ock in Schoolgirl's Body</t>
   </si>
   <si>
@@ -896,15 +906,6 @@
   </si>
   <si>
     <t>Single player story scenes previewed</t>
-  </si>
-  <si>
-    <t>Final Fantasy XVI Game Posts Launch Trailer</t>
-  </si>
-  <si>
-    <t>https://www.animenewsnetwork.com/news/2023-05-24/final-fantasy-xvi-game-posts-launch-trailer/.198411</t>
-  </si>
-  <si>
-    <t>Story featured in trailer</t>
   </si>
   <si>
     <t>Author</t>
@@ -1592,6 +1593,506 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/animenews/comments/13nqklx/new_jjk_season_2_trailer/</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Yumemiru Danshi wa Genjitsushugisha TV Anime Reveals OP / ED Theme Song Info</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/29/yumemiru-danshi-wa-genjitsushugisha-tv-anime-reveals-op-ed-theme-song-info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptation based on romantic comedy light novel series broadcasts in Japan in summer of 2023&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/444832324f7c19edd254202ea3e5e1ab1685363264_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;New information has been revealed for the official theme songs for &lt;em&gt;Yumemiru Danshi wa Genjitsushugisha&lt;/em&gt; (&amp;quot;The Dreaming Boy is a Realist&amp;quot;), an upcoming TV anime based on the romantic comedy light novel series about a young man who accidentally begins a relationship with the girl of his dreams. Read on for more.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Sorcerous Stabber Orphan Anime Introduces Haruka Fushimi as Isabella</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/29/sorcerous-stabber-orphan-anime-introduces-haruka-fushimi-as-isabella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The character will appear starting in episode 8&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/33664d11d81f2ffea3a351093b6606f11685362856_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Maria&amp;#39;s disciple Isabella joins the cast of&amp;nbsp;&lt;em&gt;Sorcerous Stabber Orphen!&lt;/em&gt;&amp;nbsp;The series welcomes Haruka Fushimi to the cast as the new character, starting in episode 8. Get to know her after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Take a Bite Out of Bikkurimen’s Chocolatey TV Anime Character Designs</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/29-1/take-a-bite-out-of-bikkurimens-chocolatey-tv-anime-character-designs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The adaptation of LOTTE’s confectionary line airs this Fall&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/23921e18948e5b0ca4fe1f2dbdcbd9be1685360962_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;After revealing the original TV anime &lt;em&gt;Bikkurimen&lt;/em&gt; last month, based on the Bikkuriman line of chocolate from Lotte, the series released the anime character designs today! Check them out after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>CygamesPictures Announces Original Mecha Anime Bang Brave Bang Bravern</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/29/cygamespictures-announces-original-mecha-anime-bang-brave-bang-bravern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaser visual, trailer revealed&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/8d46455558aba1c59811b0617339b31e1685358458_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;A brand-new original mecha anime series titled &lt;em&gt;Bang Brave Bang Bravern&lt;/em&gt;&lt;em&gt; &lt;/em&gt;was announced today, equipped with a teaser visual, teaser trailer and initial staff details to get the ball rolling. Hit the jump for all the details!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>The Masterful Cat Is Depressed Again Today TV Anime Cheers Up in New Trailer</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/29-1/the-masterful-cat-is-depressed-again-today-tv-anime-cheers-up-in-new-trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The series is scheduled to start on July 7&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/7f1bdda60edd8fe917ef5656a61e7c621685349427_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;More of the story for the upcoming &lt;em&gt;The Masterful Cat Is Depressed Again Today&lt;/em&gt; TV anime was shown off in the latest trailer for the series which also revealed the opening theme song. All can be found after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Otaku Elf Anime's New Character Visual Anoints Haira and Isuzu</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/29-1/otaku-elf-animes-new-character-visual-anoints-haira-and-isuzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fantasy comedy series is currently airing&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/6dbe73de9e9946518c28659421f537ba1685348224_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Yes, we&amp;#39;ve had one cheeky elf and stressed shrine maiden, but what about second cheeky elf and stressed shrine maiden? &lt;em&gt;Otaku Elf&lt;/em&gt; resolved the matter over the weekend in its eighth episode by introducing a new character duo, who received a dedicated visual following the broadcast. Hit the jump for all the details!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>One Piece Live-Action Series Boards the Going Merry in New Visual</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/29-1/one-piece-live-action-series-boards-the-going-merry-in-new-visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The series is scheduled to sail on Netflix in 2023&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/08273462ded695f6bee621868a22ec761685346700_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Even without a known ETA, the upcoming &lt;em&gt;One Piece &lt;/em&gt;live-action series is already hitting the high seas on the Going Merry in a brand-new visual. Hit the jump for the full picture!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>The Super Mario Bros. Movie Becomes the Fastest Hollywood-Animated Film to Reach 10 Billion Yen in Japan Ever</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/the-super-mario-bros-movie-becomes-the-fastest-hollywood-animated-film-to-reach-10-billion-yen-in-japan-ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 7 million people have seen the Nintendo film in Japan&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/80bad0c6a63cce30b7e087ba0e64de791685342270_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Mario&amp;rsquo;s superstar run in Japan continued over the last week with &lt;em&gt;The Super Mario Bros. Movie &lt;/em&gt;passing 10 billion yen over the weekend doing so in only 31 days, making it the fastest Hollywood-animated film to do so and the second-fasted Hollywood film ever after the first &lt;em&gt;Harry Potter&lt;/em&gt; film. More details after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Soul Eater, DON'T TOY WITH ME, MISS NAGATORO and More Anime are Now Available in India!</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28/soul-eater-dont-toy-with-me-miss-nagatoro-and-more-anime-are-now-available-in-india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See our new list of shows added for anime fans in India&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/28e4637d732828852659cd850871e9201685337250_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Crunchyroll is continuing to roll&amp;nbsp;out more anime for fans in India, and we have a whole new list to share! Check out the latest releases after the jump.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Toei Animation's Original Anime Project GIRLS BAND CRY Releases Key Visual &amp; Music Videos</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/toei-animations-original-anime-project-girls-band-cry-releases-key-visual-music-videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuo Sakai (Love Live! Sunshine!!) serves as the director&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/c75db30f597af7f5c8264f1e5f161a111685334980_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;A key visual and two music videos for &lt;em&gt;GIRLS&amp;nbsp;BAND CRY&lt;/em&gt;, an all-new original anime project produced by Toei Animation, have been unveiled for the first time. The digital distribution of the two songs &amp;mdash; &amp;quot;Namonaki Nanimokamo&amp;quot; and &amp;quot;Itsuwari no Kotowari&amp;quot; &amp;mdash; has also begun. Check out more new information after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>VTuber Kson Wins Starring Role in Next Two Like a Dragon Video Games</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/vtuber-kson-wins-starring-role-in-next-two-like-a-dragon-video-games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devs Ryu Ga Gotoku to hold the next summit on June 15 &lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/b65b030565719946a26810b8d14e20f11685331282_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;VShojo VTuber, talent and Kiryu-lover Kson&amp;nbsp;last night won the&lt;em&gt; Like a Dragon &lt;/em&gt;Hostess Grand Prix and will now be featured in both the upcoming &lt;em&gt;&lt;strong&gt;Gaiden&lt;/strong&gt;&lt;/em&gt; game as well as &lt;em&gt;&lt;strong&gt;Like a Dragon 8.&lt;/strong&gt;&lt;/em&gt;&amp;nbsp;Ryu Ga Gotoku also announced their next summit. All after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>One Piece Film Red Uta VA Joins the Cast of Me &amp; Roboco TV Anime as Millie</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/one-piece-film-red-uta-va-joins-the-cast-of-me-roboco-tv-anime-as-millie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The series will be screening a marathon screening this June&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/a2204eb7ca2548409458590b38695c3a1685326571_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;As&lt;em&gt; Me &amp;amp; Roboco&lt;/em&gt; heads to its final anime episode, continuing to adapt the manga of the same name by Shuhei Miyazaki, more cast members join the ever-expanding roster. Today the series announced that Kaori Nazuka will be voicing Eden member Millie. Read on for more!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Ayaka Nanase Shares Her Thoughts on Playing Cure Butterfly in Soaring Sky! Precure</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/ayaka-nanase-shares-her-thoughts-on-playing-cure-butterfly-in-soaring-sky-precure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I feel it was my destiny to meet Cure Butterfly," she says&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/f5e242974e68f90270ef0d1044e08aa11685324853_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The wait is over! It was finally revealed in the preview&amp;nbsp;for the next 18th episode of &lt;em&gt;Soaring Sky! Precure&lt;/em&gt; that Ageha Hijiri will transform into the fourth Precure, Cure Butterfly. The anime&amp;#39;s official website has released the character&amp;#39;s voice cast, Ayaka Nanase&amp;#39;s comments on the much-awaited role. Check out what she thinks after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Hinatazaka46 Member Hinano Kamimura to Star in Do It Yourself!! Live-Action Drama</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28/hinatazaka46-member-hinano-kamimura-to-star-in-do-it-yourself-live-action-drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-epiosde TV anime is available on Crunchyroll&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/ec3d68e6cc2db439693feb99122598361685320341_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The official website for the forthcoming live-action TV drama adaptation of the DIY-themed original TV anime &lt;em&gt;Do It Yourself!!&lt;/em&gt; has announced its main cast members, including idol group Hinatazaka46 member Hinano Kamimura as the protagonist Serufu Yua. Meet them in a key visual after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>SPY x FAMILY Season 2 Releases Two New "Cool" and "Comical" Teaser Visuals</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/spy-x-family-season-2-releases-two-new-cool-and-comical-teaser-visuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Season 2 is scheduled to premiere in October 2023&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/cae15e8bff36e704157cbb886c1f660d1685286483_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The official accounts for the SPY x FAMILY anime series released two new teaser&amp;nbsp;visuals for the upcoming second season today with a &amp;quot;cool&amp;quot; and &amp;quot;comical&amp;quot; version. Hit the jump to check them out!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>The Eminence in Shadow 2nd Season Trailer Reveals October 2023 Premiere</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28/the-eminence-in-shadow-2nd-season-trailer-reveals-october-2023-premiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New cast members revealed for ongoing dark fantasy light novel adaptation&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/2da9ef1c8ef865604eb0c7cf2095f8e11685283583_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;A dramatic new preview video and four additional cast members have been revealed for the upcoming second season of &lt;em&gt;The Eminence in Shadow&lt;/em&gt;, an ongoing TV anime adaptation based on the series of dark fantasy light novels. Read on for more.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bleach: Thousand-Year Blood War Anime Heats Up When Second Part Premieres on July 8 </t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/bleach-thousand-year-blood-war-anime-heats-up-when-second-part-premieres-on-july-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New trailer previews  w.o.d’s opening theme&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/cb0a7216990d072db4e21f012308821e1685274811_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The battle is heating up as the second part of the &lt;em&gt;Bleach: Thousand-Year Blood War&lt;/em&gt; anime reveals its release date today alongside a brand new trailer previewing the new opening theme, a new key visual and more characters that will be joining Ichigo&amp;rsquo;s journey. Check it all out after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Zom 100: Bucket List of the Dead TV Anime Begins July 9</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/28-1/zom-100-bucket-list-of-the-dead-tv-anime-begins-july-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening and ending theme songs announced&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/4c4d9286ed01fa30903b51ca2f12135c1685261877_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Not to be too undone by the undead, the upcoming TV anime of the &lt;em&gt;Zom 100: Bucket List of the Dead&lt;/em&gt; manga series announced a bunch of news today to sink your teeth into &amp;ndash; the premiere date as well as who will be performing the opening and ending theme tunes that will accompany the blood-curdling comedy. All after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Great Pretender Anime Gets North American Home Video Release via Anime Limited</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/27/great-pretender-anime-gets-north-american-home-video-release-via-anime-limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 anime series previously streamed on Netflix&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/e92ad897b2ae82bb435186bc5d2f93521685234100_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;UK-based distributor Anime Limited announced at&amp;nbsp;London&amp;#39;s MCM Comic-Con earlier today&amp;nbsp;its latest slate of home video releases with its usual collector&amp;#39;s&amp;nbsp;edition flair, including that the 2020&amp;nbsp;series&amp;nbsp;&lt;em&gt;Great Pretender&lt;/em&gt; will be released on home video in North America. Read on for the confirmation.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fruits Basket: Complete Anime Natsuki Takaya Illustrations Artbook Leads New Yen Press Acquisitions</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/27-1/fruits-basket-complete-anime-natsuki-takaya-illustrations-artbook-leads-new-yen-press-acquisitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yen Press detailed slate during MCM London Comic Con&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/3307e0c87e4c2133e3edc4044b90b09c1685204766_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Yen Press took to London&amp;#39;s MCM Comic-Con alongside parent Kodansha to detail its latest slate of new acquisitions slated for release this year into 2024. Read on for the diverse slate.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Dragon Quest Monsters Teases 25th Anniversary Project in New Trailer</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/27-1/dragon-quest-monsters-teases-25th-anniversary-project-in-new-trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something is in development...&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/042c1aac2f09fc8d1b0d6a76af9775ba1685191902_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;If&amp;nbsp;&lt;em&gt;Dragon Quest Monsters&lt;/em&gt;&amp;nbsp;was your monster-fighting game of choice, this is for you. To celebrate the 25th anniversary of the spinoff series, Square Enix has released a trailer detailing the series&amp;#39;s evolution over many games. Plus, it looks like something new is in development! Have a look after the jump.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Atelier Ryza Anime Welcomes Tao Mongarten in New Character PV</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/27/atelier-ryza-anime-welcomes-tao-mongarten-in-new-character-pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yui Kondo returns to voice the brains of the fantasy adventuring party&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/270056e0c9e262192cb125ab688e48111685188748_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The adventuring party is assembling for&amp;nbsp;&lt;em&gt;Atelier Ryza!&lt;/em&gt;&amp;nbsp;In anticipation of the upcoming anime adaptation of the hit game, character PVs are introducing the cast. Today, we meet the clever Tao Mongarten. Check out the video after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Shin Kamen Rider Film To End Theatrical Run in Japan on June 4</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26/shin-kamen-rider-film-to-end-theatrical-run-in-japan-on-june-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hideaki Anno's latest Shin film has earned 2.28 billion yen&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/b406f4f70c17386e12aa2582829827861685152530_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The official website for &lt;em&gt;Shin Kamen Rider&lt;/em&gt; has announced that its theatrical run in Japan will end on June 4, in 78 days since its release on March 18. Check out the announcement PV and the final messages from the three main cast after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>FLOW Posts "FLOW×NARUTO THEME SONG COVER" Performance Videos</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/flow-posts-flownaruto-theme-song-cover-performance-videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The clips were filmed at the NARUTO ＆ BORUTO attraction in Nijigen no Mori&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/313df11a25603a0b151cadfb2283ac1c1685149656_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;FLOW, a five-piece Japanese rock band, has frequently contributed songs for the Naruto franchise, has launched a project to cover the &lt;em&gt;Naruto&lt;/em&gt; theme songs by other artists, and has released short videos for its first two songs &amp;mdash; &amp;quot;Haruka Kanata&amp;quot; (ASIAN KUNG-FU GENERATION) and &amp;quot;Viva★Rock&amp;quot; (ORANGE RANGE). Check them out after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Eternal Boys Anime Releases Main Trailer for Special Theatrical Episode</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/eternal-boys-anime-releases-main-trailer-for-special-theatrical-episode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theatergoers will receive mini colored papers with newly-drawn illustrations &lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/22db845998c2143850c03903cec7cc951685146330_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The &lt;em&gt;Eternal Boys&lt;/em&gt; anime franchise&amp;nbsp;released a 30-second main trailer for its forthcoming special episode, entitled &lt;em&gt;Eternal Boys NEXT STAGE&lt;/em&gt;, which will hit theaters in Japan on June 9. Check out the middle-aged idols&amp;#39; new challenges after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Front Mission 2: Remake Delayed to Unspecified Date</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/front-mission-2-remake-delayed-to-unspecified-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Mission 2: Remake was slated to release in June&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/c60a3ecdc36629b745a955ea24ae95f71685133628_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;&lt;em&gt;&lt;strong&gt;Front Mission 2: Remake&lt;/strong&gt;&lt;/em&gt; has been delayed from its intended June 12 release date, but a new date was not revealed according to a statement from Forever Entertainment. Read on for more.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>MASHLE: MAGIC AND MUSCLES Adds 7 Cast Members of Lang House</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/mashle-magic-and-muscles-adds-7-cast-members-of-lang-house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV anime based on comic fantasy manga by Hajime Komoto is currently streaming on Crunchyroll&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/cb8bcfddd1830d0c2dc8c85ec2feb8ac1685121482_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Seven additional cast members have been revealed for &lt;em&gt;MASHLE: MAGIC AND MUSCLE&lt;/em&gt;, the currently broadcasting TV anime based on the comic fantasy action manga by Hajime Komoto. Read on for more.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Fruits Basket Stage Play Prepares for Second Season with Cast Listing and Photos</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26/fruits-basket-stage-play-prepares-for-second-season-with-cast-listing-and-photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The squeakquel premieres this October&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/2a65438b00bd663d423b4c596f0b0e711685106645_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;&lt;em&gt;Fruits Basket the Stage: 2nd Season&lt;/em&gt;&amp;nbsp;was announced earlier this year. Today, we&amp;#39;ve got tons of new announcement: new and returning cast, photos, a trailer, and a premiere date. Get it all after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>City Hunter the Movie: Angel Dust Anime Film Gets Wild with TM NETWORK Poster Art</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26/city-hunter-the-movie-angel-dust-anime-film-gets-wild-with-tm-network-poster-art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New artwork inspired by series creator Tsukasa Hojo depicts the band at dawn&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/ac85feeed3fa9e2319b1e45ad54acea21685104313_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;To celebrate TM NETWORK&amp;#39;s return for &lt;em&gt;City Hunter the Movie: Angel Dust,&amp;nbsp;&lt;/em&gt;Sunrise has released a cool new movie poster! The new visual shows the &amp;quot;Get Wild&amp;quot; band at dawn, inspired by the movie&amp;#39;s main poster. Have a peek after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Man and Machine Merge in AI no Idenshi TV Anime Trailer</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/man-and-machine-merge-in-ai-no-idenshi-tv-anime-trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New key visual, theme song performers, additional cast, and Japanese broadcast details also revealed&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/e10799cae361309963b11be47e8d25561685103907_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;A dramatic new preview video, additional cast members, the OP / ED theme song performers, and the Japanese broadcast details have all been revealed for &lt;em&gt;AI no Idenshi&lt;/em&gt;, an upcoming TV anime based on the science fiction manga by Kyuri Yamada. Read on for more.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Ragna Crimson TV Anime Announces September 30 Premiere in New Trailer</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/ragna-crimson-tv-anime-announces-september-30-premiere-in-new-trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two more cast members join the dark fantasy series&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/6453399678e7f3588cddf86095912a7b1685099405_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The battle between humans and dragons comes to a head this September with the premiere of&amp;nbsp;&lt;em&gt;Ragna Crimson&lt;/em&gt;. To reveal the anime&amp;rsquo;s premiere date today, a brand new trailer was released that also announced the addition of two more cast members. All of this after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Mushoku Tensei: Jobless Reincarnation Season 2 Anime Sets Premiere Date with New Visual, Trailer</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/mushoku-tensei-jobless-reincarnation-season-2-anime-sets-premiere-date-with-new-visual-trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantasy sequel is coming to Crunchyroll in July 2023&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/411e234f82b7a40618a5fc5efbecc6be1685099177_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Rudeus&amp;#39; next step on his magical journey will lead him into the formation of a signature spell and moniker, which we get a flashy preview of through a brand-new key visual and trailer for &lt;em&gt;Mushoku Tensei: Jobless Reincarnation&lt;/em&gt; Season 2. Hit the jump for all the details!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Akiba Maid War Stage Play Takes Aim at Tokyo in Teaser Visual</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26/akiba-maid-war-stage-play-takes-aim-at-tokyo-in-teaser-visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptation of original anime premieres this September&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/d1afa05c0920143aef938dd370858bc51685097353_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;A teaser visual for the upcoming stage play adaptation of &lt;em&gt;Akiba Maid War&lt;/em&gt; was unveiled today, providing a warning shot ahead of a September premiere in Tokyo. Hit the jump for the full picture!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Helck TV Anime Sets July 11 Premiere with New Trailer, Cast</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/helck-tv-anime-sets-july-11-premiere-with-new-trailer-cast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martian Successor Nadesico director helms fantasy series&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/f92e6fba6c86c8c9ef0233db26ccf05d1685095204_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The narrator and a witch join the already twenty-strong cast for fantasy anime &lt;em&gt;Helck, &lt;/em&gt;which also released its main trailer, theme song artists and premiere details today ahead of the Summer 2023 season. Hit the jump for all the details!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Daoko’s Sailor Moon Cosmos Anime Films Theme Previewed Alongside Starlights Transformation Teaser</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/daokos-sailor-moon-cosmos-anime-films-theme-previewed-alongside-starlights-transformation-teaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The full music video will be released on June 13&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/012df79154317bb296994d49888bb7281685095887_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;In two weeks, the first part of the&lt;em&gt; Sailor Moon Cosmos &lt;/em&gt;anime film duology will be hitting theaters across Japan and to get fans pumped up for the films, two teasers for the movies were released, both of which can be seen after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Itaru Yamamoto Joins Undead Murder Farce TV Anime as Victor the Android</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/itaru-yamamoto-joins-undead-murder-farce-tv-anime-as-victor-the-android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mystery series premieres this July&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/74c24cd7d4150095c729ae0f7665efd51685094774_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;It seems that every few days we&amp;rsquo;ve been getting a new character reveal for the upcoming&lt;em&gt; Undead Murder Farce&lt;/em&gt; TV anime, and today is no different with the announcement that Itaru Yamamoto&amp;nbsp;will be joining the cast as the android Victor. More about him after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/26-1/dark-gathering-tv-anime-premieres-on-july-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TONIKAWA director helms supernatural horror series&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/bdb6701eef09e2ed08cc8f3f4d5d67ee1685094509_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Gather round, all those who dare, because supernatural horror anime &lt;em&gt;Dark Gathering&lt;/em&gt; now has an official apparition date. Hit the jump for all the details!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Kyoto Animation to Erect Two Memorials to Honor Victims of Arson Attack</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/kyoto-animation-to-erect-two-memorials-to-honor-victims-of-arson-attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both are scheduled to open by July 18, 2024&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/f839e8e817b10a02e94e5bf334261d401685078637_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;This July will mark four years since the Kyoto Animation arson attack, which took the lives of 36 employees. Shortly after the attack, Kyoto Animation president Hideaki Hatta made a commitment to&amp;nbsp;honor those whose lives were lost and finally announced&amp;nbsp;the studio&amp;#39;s intentions to build a memorial site. Read on for more details.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>New Saga TV Anime Announces Postponement Due to Various Reasons</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/new-saga-tv-anime-announces-postponement-due-to-various-reasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuma Uchida is cast as the protagonist Kyle&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/0ed92335fbfd5234cf718bba47e4a2361685076515_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The official Twitter&amp;nbsp;for the forthcoming TV anime adaptation of Masayuki Abe&amp;#39;s fantasy light novel series &lt;em&gt;New Saga&lt;/em&gt;, which was originally scheduled to premiere in July 2023, announced the postponement of the broadcast due to various reasons today. Hit the jump for more details.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokémon HOME Updates This Week For Scarlet and Violet Compatibility </t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25-1/pokmon-home-updates-this-week-for-scarlet-and-violet-compatibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ll be given the three Paldean starters with their hidden ability!&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/86c127e930d4d682167a9b8beac6ff961685076147_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Earlier this month, The Pok&amp;eacute;mon Company International announced that Pok&amp;eacute;mon HOME will finally be updated to become compatible with the latest games in the series, &lt;em&gt;Pok&amp;eacute;mon Scarlet and Violet&lt;/em&gt;. Today, the company confirmed that the compatibility will be coming over the next week. Catch the details after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Asta Duel Wields His Swords in Latest Trailer for Black Clover: Sword of the Wizard King Anime Film</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/asta-duel-wields-his-swords-in-latest-trailer-for-black-clover-sword-of-the-wizard-king-anime-film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The film releases on June 16 in theaters in Japan and on Netflix around the world&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/73f9f5b0c4c292221150dd2d2c20ce021685070753_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;In the lead-up to the release of the &lt;em&gt;Black Clover&lt;/em&gt; anime film on June 16, four character trailers will be released. The first of these trailers was released today and features the lovable main character Asta as he takes on the goal of becoming a magic emperor head-on. Check it out after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Zatsu Tabi: That's Journey Manga Reveals Anime Project Plans</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/zatsu-tabi-thats-journey-manga-reveals-anime-project-plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manga artist goes on a journey of self-discovery in award-nominated series&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/fa91525e3d70a36ae60c2947038f29ec1685069966_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Just as amateur mangaka Chika Suzugamori heads north, the &lt;em&gt;Zatsu Tabi: That&amp;#39;s Journey&lt;/em&gt; slice-of-adventure is also moving its way up to an anime project that was just announced. Hit the jump for all the details!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Love Live! VAs Cancel Radio Show and Events Due to Health Issues </t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25-1/two-love-live-vas-cancel-radio-show-and-events-due-to-health-issues-this-weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The events themselves will be held as scheduled&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/116a762c317d8e4a523e4650c79f4daf1685066699_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Two voice actresses from the Love Live! franchise have cancelled appearances at events and radio shows this weekend due to health issues - Ai Furihata (Ruby Kurosawa) from &lt;em&gt;Love Live! Sunshine!!&lt;/em&gt; and Liyuu (Keke Tang) from &lt;em&gt;Love Live! Superstar!!&lt;/em&gt; Hit the jump for more details.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Rei Nakashima Releases Sugar Apple Fairy Tale Anime Season 2 Opening Theme MV</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25-1/rei-nakashima-releases-sugar-apple-fairy-tale-anime-season-2-opening-theme-mv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her debut single "Surprise" hits stores on July 19&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire4/ac86896c557e4c2143bc174f7901ba591685063586_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Rei Nakashima, an 18-year-old grand prix winner of the 2022 Flying Dog Audition &amp;quot;Inucon!,&amp;quot; has posted a short music video for her debut single song &amp;quot;Surprise,&amp;quot; which will be featured as the opening theme for the TV anime &lt;em&gt;Sugar Apple Fairy Tale&lt;/em&gt;&amp;#39;s forthcoming second season. Check out her singing voice after the jump!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Yuzukisan Chi no Yonkyodai Manga Surpasses One Million Copies in Print</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/yuzukisan-chi-no-yonkyodai-manga-surpasses-one-million-copies-in-print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV anime is now in the works for a fall 2023 premiere&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/a587025139623f510380511ccd3c6e561685060839_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;The official Twitter for Shogakukan&amp;#39;s s shojo manga magazine Betsucomi has confirmed that Shizuki Fujisawa&amp;#39;s coming-of-age manga &lt;em&gt;Yuzukisan chi no Yonkyodai &lt;/em&gt; had printed more than one million copies in Japan with the release of its latest 14th tankobon volume on May 25. Hit the jump for more information!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>The Eminence in Shadow: Master of Garden Game Launches on PC with Cross-Platform Play</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/the-eminence-in-shadow-master-of-garden-game-launches-on-pc-with-cross-platform-play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crunchyroll Games kicks off anniversary celebrations across multiple games&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/50bbd36bf06098c3ffd641d0bedcf6161684895127_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;It&amp;#39;s a big month for &lt;i&gt;The Eminence in Shadow: Master of Garden &lt;/i&gt;and a handful of other key titles from Crunchyroll Games.&amp;nbsp;Read on for all the details!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Oshi no Ko Anime Music Video Jams English Version of YOASOBI Theme</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/oshi-no-ko-anime-music-video-jams-to-english-version-of-yoasobi-theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The original version is now at over 119 million views&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire2/339b845b490d10eddc71db3fee9bb8b81685028719_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;It&amp;#39;s safe to say the &lt;i&gt;Oshi no Ko &lt;/i&gt;anime&amp;#39;s opening theme song made a splash when it debuted, and the original Japanese version now sits at over 119 million views on YouTube. The official Ayase / YOASOBI YouTube channel is looking to add to those numbers with the arrival of the English version!&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>The Condemned Villainess Goes Back in Time and Aims to Become the Ultimate Villain Leads Off Latest Seven Seas Acquisitions</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25-1/the-condemned-villainess-goes-back-in-time-and-aims-to-become-the-ultimate-villain-leads-off-latest-seven-seas-acquisitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three more titles continue Wonderful Wednesdays announcements&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire3/c55e5c1b1ac9f3660b853098f83a7ef41685026011_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;Seven Seas Entertainment is continuing its weekly Wonderful Wednesdays announcements, and while this week&amp;#39;s slate is shorter than the last at three titles it&amp;#39;s no&amp;nbsp;less important. Read on for details.&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>FEATURE: What Watching Anime Taught Me About My Social Anxiety</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-feature/2023/05/25/feature-what-watching-anime-taught-me-about-my-social-anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watching these helped me, so they might help you&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/72c84c0862ec5105088b375e4d1583b31684447287_thumb.png"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;&lt;span style="font-size:11pt; font-variant:normal; white-space:pre-wrap"&gt;&lt;span style="font-family:Arial"&gt;&lt;span data-darkreader-inline-color="" style="color: rgb(0, 0, 0); --darkreader-inline-color: #e8e6e3;"&gt;&lt;span style="font-weight:400"&gt;&lt;span style="font-style:normal"&gt;&lt;span style="text-decoration:none"&gt;May is Mental Health Awareness Month. We&amp;rsquo;re taking an intimate look at anime about social anxiety and how the medium inspires us to overcome the condition. Hit the jump for more!&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Disgaea 7: Vows of the Virtueless Game Reveals Western Release Dates</t>
+  </si>
+  <si>
+    <t>https://www.crunchyroll.com/anime-news/2023/05/25/disgaea-7-vows-of-the-virtueless-game-reveals-western-release-dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIS America released a new story trailer alongside October plans&lt;br/&gt;&lt;img src="https://img1.ak.crunchyroll.com/i/spire1/6c9fd14b5c1c72f999431a33914927e11685025867_thumb.jpg"  /&gt;&lt;br/&gt;&lt;br/&gt;&lt;p&gt;&lt;em&gt;Disgaea 7: Vows of the Virtueless&lt;/em&gt;&amp;nbsp;announced a&amp;nbsp;release date for October this year and shared a new trailer. Read on for more!&lt;/p&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -3588,7 +4089,7 @@
         <v>417</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3613,7 +4114,7 @@
     </row>
     <row r="4" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>419</v>
@@ -3622,7 +4123,7 @@
         <v>421</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -3639,7 +4140,7 @@
         <v>424</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3647,7 +4148,7 @@
     </row>
     <row r="6" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>419</v>
@@ -3656,7 +4157,7 @@
         <v>425</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3673,7 +4174,7 @@
         <v>427</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3681,7 +4182,7 @@
     </row>
     <row r="8" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>419</v>
@@ -3741,7 +4242,7 @@
         <v>434</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3766,7 +4267,7 @@
     </row>
     <row r="13" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>419</v>
@@ -3775,7 +4276,7 @@
         <v>437</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3826,7 +4327,7 @@
         <v>446</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3843,7 +4344,7 @@
         <v>448</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3860,7 +4361,7 @@
         <v>450</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3877,7 +4378,7 @@
         <v>452</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3885,7 +4386,7 @@
     </row>
     <row r="20" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
         <v>419</v>
@@ -3911,7 +4412,7 @@
         <v>455</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -3919,7 +4420,7 @@
     </row>
     <row r="22" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
         <v>419</v>
@@ -3936,7 +4437,7 @@
     </row>
     <row r="23" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
         <v>419</v>
@@ -3945,7 +4446,7 @@
         <v>457</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3953,7 +4454,7 @@
     </row>
     <row r="24" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
         <v>419</v>
@@ -3970,7 +4471,7 @@
     </row>
     <row r="25" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>419</v>
@@ -3979,7 +4480,7 @@
         <v>459</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3987,7 +4488,7 @@
     </row>
     <row r="26" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
         <v>419</v>
@@ -4004,7 +4505,7 @@
     </row>
     <row r="27" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
         <v>419</v>
@@ -4030,7 +4531,7 @@
         <v>463</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4055,7 +4556,7 @@
     </row>
     <row r="30" ht="200" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
         <v>419</v>
@@ -4064,7 +4565,7 @@
         <v>466</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4081,7 +4582,7 @@
         <v>468</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4149,7 +4650,7 @@
         <v>477</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4183,7 +4684,7 @@
         <v>481</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4217,7 +4718,7 @@
         <v>485</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4251,7 +4752,7 @@
         <v>489</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4285,7 +4786,7 @@
         <v>493</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4302,7 +4803,7 @@
         <v>495</v>
       </c>
       <c r="D44">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4336,7 +4837,7 @@
         <v>499</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4353,7 +4854,7 @@
         <v>501</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4421,10 +4922,587 @@
         <v>509</v>
       </c>
       <c r="D51">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="100" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="200" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" t="s">
+        <v>554</v>
+      </c>
+      <c r="C16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>559</v>
+      </c>
+      <c r="B18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C21" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B22" t="s">
+        <v>572</v>
+      </c>
+      <c r="C22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>574</v>
+      </c>
+      <c r="B23" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>577</v>
+      </c>
+      <c r="B24" t="s">
+        <v>578</v>
+      </c>
+      <c r="C24" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C25" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>583</v>
+      </c>
+      <c r="B26" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>586</v>
+      </c>
+      <c r="B27" t="s">
+        <v>587</v>
+      </c>
+      <c r="C27" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="28" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="29" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" t="s">
+        <v>596</v>
+      </c>
+      <c r="C30" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="31" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>604</v>
+      </c>
+      <c r="B33" t="s">
+        <v>605</v>
+      </c>
+      <c r="C33" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>607</v>
+      </c>
+      <c r="B34" t="s">
+        <v>608</v>
+      </c>
+      <c r="C34" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="35" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>610</v>
+      </c>
+      <c r="B35" t="s">
+        <v>611</v>
+      </c>
+      <c r="C35" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>613</v>
+      </c>
+      <c r="B36" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="37" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B37" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>619</v>
+      </c>
+      <c r="C38" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" t="s">
+        <v>622</v>
+      </c>
+      <c r="C39" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>624</v>
+      </c>
+      <c r="B40" t="s">
+        <v>625</v>
+      </c>
+      <c r="C40" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="41" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>627</v>
+      </c>
+      <c r="B41" t="s">
+        <v>628</v>
+      </c>
+      <c r="C41" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>630</v>
+      </c>
+      <c r="B42" t="s">
+        <v>631</v>
+      </c>
+      <c r="C42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="43" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>634</v>
+      </c>
+      <c r="C43" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="44" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>636</v>
+      </c>
+      <c r="B44" t="s">
+        <v>637</v>
+      </c>
+      <c r="C44" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="45" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>639</v>
+      </c>
+      <c r="B45" t="s">
+        <v>640</v>
+      </c>
+      <c r="C45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>642</v>
+      </c>
+      <c r="B46" t="s">
+        <v>643</v>
+      </c>
+      <c r="C46" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="47" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>645</v>
+      </c>
+      <c r="B47" t="s">
+        <v>646</v>
+      </c>
+      <c r="C47" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="48" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>648</v>
+      </c>
+      <c r="B48" t="s">
+        <v>649</v>
+      </c>
+      <c r="C48" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="49" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>651</v>
+      </c>
+      <c r="B49" t="s">
+        <v>652</v>
+      </c>
+      <c r="C49" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="50" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>654</v>
+      </c>
+      <c r="B50" t="s">
+        <v>655</v>
+      </c>
+      <c r="C50" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>657</v>
+      </c>
+      <c r="B51" t="s">
+        <v>658</v>
+      </c>
+      <c r="C51" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>
